--- a/Unity/Assets/Config/Excel/StartConfig/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29100" windowHeight="14540"/>
+    <workbookView windowHeight="16760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>##var</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>路由区</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>公共区</t>
   </si>
   <si>
     <t>ZoneStatus</t>
@@ -1078,13 +1084,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="24.2857142857143" customWidth="1"/>
     <col min="3" max="3" width="20.875" customWidth="1"/>
@@ -1228,35 +1234,47 @@
       </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="3"/>
+      <c r="H7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7" t="s">
         <v>27</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
       <c r="H8" t="s">
         <v>29</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="3"/>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
